--- a/个人总结/SRA2021-G03-潘姝焱绩效考核表.xlsx
+++ b/个人总结/SRA2021-G03-潘姝焱绩效考核表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23980" windowHeight="23580"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>SRA2021-G03 小组人员绩效考核表-潘姝焱</t>
   </si>
@@ -70,21 +70,6 @@
     <t>考核项目及标准（每小点满分5分）</t>
   </si>
   <si>
-    <t>成员1(tt)</t>
-  </si>
-  <si>
-    <t>成员2(cxb)</t>
-  </si>
-  <si>
-    <t>成员3(zwy)</t>
-  </si>
-  <si>
-    <t>成员4(lys)</t>
-  </si>
-  <si>
-    <t>成员5(zc)</t>
-  </si>
-  <si>
     <t>1、上课有无迟到、早退</t>
   </si>
   <si>
@@ -111,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -152,7 +137,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +167,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,15 +217,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -220,45 +258,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,29 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,31 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +307,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,31 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,61 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,24 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -555,6 +522,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,6 +566,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,183 +604,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,61 +777,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1140,24 +1122,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80357142857143" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="9.1875" customWidth="1"/>
-    <col min="4" max="4" width="13.0178571428571" customWidth="1"/>
-    <col min="5" max="5" width="46.7142857142857" customWidth="1"/>
-    <col min="6" max="10" width="13.9285714285714" customWidth="1"/>
-    <col min="11" max="27" width="9.1875" customWidth="1"/>
+    <col min="1" max="3" width="9.19166666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.0166666666667" customWidth="1"/>
+    <col min="5" max="5" width="46.7166666666667" customWidth="1"/>
+    <col min="6" max="10" width="13.925" customWidth="1"/>
+    <col min="11" max="27" width="9.19166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" ht="17.4" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,19 +1209,19 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1285,7 +1267,7 @@
       <c r="J4" s="4">
         <v>10</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K10" si="0">AVERAGE(F4:J4)</f>
         <v>9.4</v>
       </c>
@@ -1329,7 +1311,7 @@
       <c r="J5" s="4">
         <v>9</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1373,7 +1355,7 @@
       <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1417,7 +1399,7 @@
       <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1453,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
         <v>9</v>
@@ -1461,9 +1443,9 @@
       <c r="J8" s="4">
         <v>9</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1503,11 +1485,11 @@
         <v>9</v>
       </c>
       <c r="J9" s="4">
-        <v>9</v>
-      </c>
-      <c r="K9" s="9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1549,7 +1531,7 @@
       <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
@@ -1583,7 +1565,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1610,21 +1592,23 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1644,7 +1628,7 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:27">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1665,7 +1649,7 @@
       <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f t="shared" ref="K13:K18" si="1">AVERAGE(F13:J13)</f>
         <v>5</v>
       </c>
@@ -1688,7 +1672,7 @@
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:27">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1709,7 +1693,7 @@
       <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1732,7 +1716,7 @@
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:27">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1745,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="4">
         <v>5</v>
@@ -1753,9 +1737,9 @@
       <c r="J15" s="4">
         <v>5</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1776,7 +1760,7 @@
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:27">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1797,7 +1781,7 @@
       <c r="J16" s="4">
         <v>5</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1820,7 +1804,7 @@
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:27">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1841,7 +1825,7 @@
       <c r="J17" s="4">
         <v>5</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1864,7 +1848,7 @@
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:27">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1877,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="4">
         <v>5</v>
@@ -1885,9 +1869,9 @@
       <c r="J18" s="4">
         <v>5</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1908,7 +1892,7 @@
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:27">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1916,7 +1900,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4">
         <f>SUM(K4:K10)+SUM(K13:K18)</f>
-        <v>95</v>
+        <v>94.2</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
